--- a/Prospects/HodgeBank/Archive/synthetic.xlsx
+++ b/Prospects/HodgeBank/Archive/synthetic.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\demo-systems\SYS3 - MIFID\DEMOXMLSTATIC\Prospects\HodgeBank\Archive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matttownsend/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="4500" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="12880" yWindow="1900" windowWidth="28800" windowHeight="17620" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Centre" sheetId="2" r:id="rId1"/>
@@ -21,9 +21,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Source!$A$1:$C$149</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="16" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -113,7 +113,6 @@
         <sz val="14"/>
         <color rgb="FF0B0080"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>Trinity Hall</t>
     </r>
@@ -122,7 +121,6 @@
         <sz val="14"/>
         <color rgb="FF222222"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>, a </t>
     </r>
@@ -131,7 +129,6 @@
         <sz val="14"/>
         <color rgb="FF0B0080"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>Cambridge University</t>
     </r>
@@ -140,7 +137,6 @@
         <sz val="14"/>
         <color rgb="FF222222"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>College, and 50% by Cambridgeshire Local Government Pension Scheme</t>
     </r>
@@ -824,7 +820,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -838,19 +834,16 @@
       <sz val="14"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF0B0080"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -902,9 +895,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3269,7 +3259,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -3324,15 +3314,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B71" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="12">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -3778,15 +3765,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:C71" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="12">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -4306,9 +4290,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -4577,20 +4558,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>157</v>
       </c>
@@ -4598,7 +4579,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>158</v>
       </c>
@@ -4606,7 +4587,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>159</v>
       </c>
@@ -4614,7 +4595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>160</v>
       </c>
@@ -4622,13 +4603,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>161</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>162</v>
       </c>
@@ -4643,12 +4624,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4656,20 +4637,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A3:B71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>110</v>
       </c>
@@ -4677,7 +4658,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -4685,7 +4666,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -4693,7 +4674,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -4701,7 +4682,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>165</v>
       </c>
@@ -4709,7 +4690,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -4717,7 +4698,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -4725,7 +4706,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -4733,7 +4714,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>117</v>
       </c>
@@ -4741,7 +4722,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>166</v>
       </c>
@@ -4749,7 +4730,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -4757,7 +4738,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -4765,7 +4746,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -4773,7 +4754,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -4781,7 +4762,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -4789,7 +4770,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -4797,7 +4778,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>121</v>
       </c>
@@ -4805,7 +4786,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -4813,7 +4794,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -4821,7 +4802,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>123</v>
       </c>
@@ -4829,7 +4810,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>169</v>
       </c>
@@ -4837,7 +4818,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -4845,7 +4826,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -4853,7 +4834,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -4861,7 +4842,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>171</v>
       </c>
@@ -4869,7 +4850,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>172</v>
       </c>
@@ -4877,7 +4858,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>126</v>
       </c>
@@ -4885,7 +4866,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -4893,7 +4874,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>173</v>
       </c>
@@ -4901,7 +4882,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -4909,7 +4890,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>129</v>
       </c>
@@ -4917,7 +4898,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -4925,7 +4906,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>130</v>
       </c>
@@ -4933,7 +4914,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>131</v>
       </c>
@@ -4941,7 +4922,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>132</v>
       </c>
@@ -4949,7 +4930,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -4957,7 +4938,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -4965,7 +4946,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>134</v>
       </c>
@@ -4973,7 +4954,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>135</v>
       </c>
@@ -4981,7 +4962,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>136</v>
       </c>
@@ -4989,7 +4970,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>137</v>
       </c>
@@ -4997,7 +4978,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>138</v>
       </c>
@@ -5005,7 +4986,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>175</v>
       </c>
@@ -5013,7 +4994,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>139</v>
       </c>
@@ -5021,7 +5002,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>140</v>
       </c>
@@ -5029,7 +5010,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>141</v>
       </c>
@@ -5037,7 +5018,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>142</v>
       </c>
@@ -5045,7 +5026,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>144</v>
       </c>
@@ -5053,7 +5034,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -5061,7 +5042,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>176</v>
       </c>
@@ -5069,7 +5050,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -5077,7 +5058,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>145</v>
       </c>
@@ -5085,7 +5066,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>178</v>
       </c>
@@ -5093,7 +5074,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>146</v>
       </c>
@@ -5101,7 +5082,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>147</v>
       </c>
@@ -5109,7 +5090,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>148</v>
       </c>
@@ -5117,7 +5098,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>149</v>
       </c>
@@ -5125,7 +5106,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>150</v>
       </c>
@@ -5133,7 +5114,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>151</v>
       </c>
@@ -5141,7 +5122,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>152</v>
       </c>
@@ -5149,7 +5130,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>179</v>
       </c>
@@ -5157,7 +5138,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>180</v>
       </c>
@@ -5165,7 +5146,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>153</v>
       </c>
@@ -5173,7 +5154,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>181</v>
       </c>
@@ -5181,7 +5162,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>182</v>
       </c>
@@ -5189,7 +5170,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>154</v>
       </c>
@@ -5197,7 +5178,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>155</v>
       </c>
@@ -5205,7 +5186,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>161</v>
       </c>
@@ -5213,7 +5194,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>162</v>
       </c>
@@ -5225,21 +5206,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A3:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B69"/>
+      <selection activeCell="B69" sqref="A4:B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>110</v>
       </c>
@@ -5250,7 +5231,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -5261,7 +5242,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -5272,7 +5253,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -5283,7 +5264,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>165</v>
       </c>
@@ -5294,7 +5275,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -5305,7 +5286,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -5316,7 +5297,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -5327,7 +5308,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>117</v>
       </c>
@@ -5338,7 +5319,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>166</v>
       </c>
@@ -5349,7 +5330,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -5360,7 +5341,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -5371,7 +5352,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -5382,7 +5363,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -5393,7 +5374,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -5404,7 +5385,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -5415,7 +5396,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>121</v>
       </c>
@@ -5426,7 +5407,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -5437,7 +5418,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -5448,7 +5429,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>123</v>
       </c>
@@ -5459,7 +5440,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>169</v>
       </c>
@@ -5470,7 +5451,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -5481,7 +5462,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -5492,7 +5473,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -5503,7 +5484,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>171</v>
       </c>
@@ -5514,7 +5495,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>172</v>
       </c>
@@ -5525,7 +5506,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>126</v>
       </c>
@@ -5536,7 +5517,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -5547,7 +5528,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>173</v>
       </c>
@@ -5558,7 +5539,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -5569,7 +5550,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>129</v>
       </c>
@@ -5580,7 +5561,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -5591,7 +5572,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>130</v>
       </c>
@@ -5602,7 +5583,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>131</v>
       </c>
@@ -5613,7 +5594,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>132</v>
       </c>
@@ -5624,7 +5605,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -5635,7 +5616,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -5646,7 +5627,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>134</v>
       </c>
@@ -5657,7 +5638,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>135</v>
       </c>
@@ -5668,7 +5649,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>136</v>
       </c>
@@ -5679,7 +5660,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>137</v>
       </c>
@@ -5690,7 +5671,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>138</v>
       </c>
@@ -5701,7 +5682,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>175</v>
       </c>
@@ -5712,7 +5693,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>139</v>
       </c>
@@ -5723,7 +5704,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>140</v>
       </c>
@@ -5734,7 +5715,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>141</v>
       </c>
@@ -5745,7 +5726,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>142</v>
       </c>
@@ -5756,7 +5737,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>144</v>
       </c>
@@ -5767,7 +5748,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -5778,7 +5759,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>176</v>
       </c>
@@ -5789,7 +5770,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -5800,7 +5781,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>145</v>
       </c>
@@ -5811,7 +5792,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>178</v>
       </c>
@@ -5822,7 +5803,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>146</v>
       </c>
@@ -5833,7 +5814,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>147</v>
       </c>
@@ -5844,7 +5825,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>148</v>
       </c>
@@ -5855,7 +5836,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>149</v>
       </c>
@@ -5866,7 +5847,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>150</v>
       </c>
@@ -5877,7 +5858,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>151</v>
       </c>
@@ -5888,7 +5869,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>152</v>
       </c>
@@ -5899,7 +5880,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>179</v>
       </c>
@@ -5910,7 +5891,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>180</v>
       </c>
@@ -5921,7 +5902,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>153</v>
       </c>
@@ -5932,7 +5913,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>181</v>
       </c>
@@ -5943,7 +5924,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>182</v>
       </c>
@@ -5954,7 +5935,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>154</v>
       </c>
@@ -5965,7 +5946,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>155</v>
       </c>
@@ -5976,7 +5957,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>161</v>
       </c>
@@ -5987,7 +5968,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>162</v>
       </c>
@@ -5999,27 +5980,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:L149"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="122.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" customWidth="1"/>
-    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="122.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.5" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6057,7 +6038,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>84</v>
       </c>
@@ -6076,7 +6057,7 @@
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(100000000,500000000)</f>
-        <v>150648311</v>
+        <v>145417214</v>
       </c>
       <c r="G2" t="str">
         <f>SUBSTITUTE(UPPER(A2),"&amp;","and")</f>
@@ -6084,11 +6065,11 @@
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(-100000,150000)</f>
-        <v>4448</v>
+        <v>-11939</v>
       </c>
       <c r="I2" t="str">
         <f ca="1">IF(H2&lt;0,"DEPO","LOAN")</f>
-        <v>LOAN</v>
+        <v>DEPO</v>
       </c>
       <c r="J2" t="str">
         <f>SUBSTITUTE(G2," ","")</f>
@@ -6103,7 +6084,7 @@
         <v>ADAMCOMPAN</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>100</v>
       </c>
@@ -6122,7 +6103,7 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F59" ca="1" si="1">RANDBETWEEN(100000000,500000000)</f>
-        <v>414030198</v>
+        <v>296148654</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G59" si="2">SUBSTITUTE(UPPER(A3),"&amp;","and")</f>
@@ -6130,7 +6111,7 @@
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H59" ca="1" si="3">RANDBETWEEN(-100000,150000)</f>
-        <v>-13023</v>
+        <v>-52919</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I59" ca="1" si="4">IF(H3&lt;0,"DEPO","LOAN")</f>
@@ -6149,7 +6130,7 @@
         <v>AIBGROUPUK</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -6168,7 +6149,7 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>250879196</v>
+        <v>170735455</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="2"/>
@@ -6176,11 +6157,11 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="3"/>
-        <v>143612</v>
+        <v>-67520</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LOAN</v>
+        <v>DEPO</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="5"/>
@@ -6194,7 +6175,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>87</v>
       </c>
@@ -6213,7 +6194,7 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>463648082</v>
+        <v>469156045</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="2"/>
@@ -6221,7 +6202,7 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="3"/>
-        <v>-33695</v>
+        <v>-86155</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -6240,7 +6221,7 @@
         <v>ALLIANCETR</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -6259,7 +6240,7 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>140095231</v>
+        <v>280222873</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="2"/>
@@ -6267,7 +6248,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="3"/>
-        <v>82398</v>
+        <v>126699</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -6285,7 +6266,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -6304,7 +6285,7 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>291590736</v>
+        <v>342212683</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="2"/>
@@ -6312,7 +6293,7 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="3"/>
-        <v>147028</v>
+        <v>64220</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -6330,7 +6311,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>101</v>
       </c>
@@ -6349,7 +6330,7 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>321505786</v>
+        <v>298068596</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="2"/>
@@ -6357,7 +6338,7 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="3"/>
-        <v>-29390</v>
+        <v>-30904</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -6375,7 +6356,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -6394,7 +6375,7 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>118048445</v>
+        <v>487835626</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="2"/>
@@ -6402,11 +6383,11 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="3"/>
-        <v>-45246</v>
+        <v>30775</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DEPO</v>
+        <v>LOAN</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="5"/>
@@ -6420,7 +6401,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -6439,7 +6420,7 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>249278703</v>
+        <v>219029474</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="2"/>
@@ -6447,7 +6428,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="3"/>
-        <v>76343</v>
+        <v>73340</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -6465,7 +6446,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -6484,7 +6465,7 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>356343678</v>
+        <v>288592365</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="2"/>
@@ -6492,11 +6473,11 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="3"/>
-        <v>-30433</v>
+        <v>85920</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DEPO</v>
+        <v>LOAN</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="5"/>
@@ -6510,7 +6491,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -6529,7 +6510,7 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>373028798</v>
+        <v>311906618</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="2"/>
@@ -6537,7 +6518,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="3"/>
-        <v>130392</v>
+        <v>12560</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -6556,7 +6537,7 @@
         <v>BIRABANKLT</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -6575,7 +6556,7 @@
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>102948951</v>
+        <v>239182461</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="2"/>
@@ -6583,7 +6564,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="3"/>
-        <v>18075</v>
+        <v>20016</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -6601,7 +6582,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -6620,7 +6601,7 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>495300216</v>
+        <v>243973895</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="2"/>
@@ -6628,11 +6609,11 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
-        <v>-1821</v>
+        <v>6644</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DEPO</v>
+        <v>LOAN</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="5"/>
@@ -6646,7 +6627,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -6665,7 +6646,7 @@
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>343877414</v>
+        <v>425141953</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="2"/>
@@ -6673,7 +6654,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="3"/>
-        <v>-1639</v>
+        <v>-95481</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -6692,7 +6673,7 @@
         <v>CHOARECO</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -6711,7 +6692,7 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>475633252</v>
+        <v>439931902</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="2"/>
@@ -6719,7 +6700,7 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="3"/>
-        <v>53818</v>
+        <v>25613</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -6737,7 +6718,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -6756,7 +6737,7 @@
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>374225184</v>
+        <v>228127671</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="2"/>
@@ -6764,11 +6745,11 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="3"/>
-        <v>91202</v>
+        <v>-64671</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LOAN</v>
+        <v>DEPO</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="5"/>
@@ -6783,7 +6764,7 @@
         <v>CAMBRIDGEC</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>102</v>
       </c>
@@ -6802,7 +6783,7 @@
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>299458633</v>
+        <v>361585650</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="2"/>
@@ -6810,11 +6791,11 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="3"/>
-        <v>-7808</v>
+        <v>55523</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DEPO</v>
+        <v>LOAN</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="5"/>
@@ -6828,7 +6809,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -6847,7 +6828,7 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>187290973</v>
+        <v>347016512</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
@@ -6855,7 +6836,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="3"/>
-        <v>23825</v>
+        <v>41243</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -6873,7 +6854,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -6892,7 +6873,7 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>365510171</v>
+        <v>321622670</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
@@ -6900,11 +6881,11 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="3"/>
-        <v>133040</v>
+        <v>-87447</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LOAN</v>
+        <v>DEPO</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="5"/>
@@ -6918,7 +6899,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -6937,7 +6918,7 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>381590563</v>
+        <v>336238693</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="2"/>
@@ -6945,11 +6926,11 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="3"/>
-        <v>18760</v>
+        <v>-75319</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LOAN</v>
+        <v>DEPO</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="5"/>
@@ -6964,7 +6945,7 @@
         <v>CLOSEBROTH</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -6983,7 +6964,7 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>233039899</v>
+        <v>180279140</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
@@ -6991,11 +6972,11 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="3"/>
-        <v>-43055</v>
+        <v>54805</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DEPO</v>
+        <v>LOAN</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="5"/>
@@ -7010,7 +6991,7 @@
         <v>CLYDESDALE</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>103</v>
       </c>
@@ -7029,7 +7010,7 @@
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>153211163</v>
+        <v>234144253</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="2"/>
@@ -7037,11 +7018,11 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="3"/>
-        <v>-17769</v>
+        <v>94168</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DEPO</v>
+        <v>LOAN</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="5"/>
@@ -7055,7 +7036,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>89</v>
       </c>
@@ -7074,7 +7055,7 @@
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>257300464</v>
+        <v>327524379</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="2"/>
@@ -7082,7 +7063,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="3"/>
-        <v>-69135</v>
+        <v>-96744</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7100,7 +7081,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -7119,7 +7100,7 @@
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>315918549</v>
+        <v>148088661</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="2"/>
@@ -7127,7 +7108,7 @@
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="3"/>
-        <v>26250</v>
+        <v>138391</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7146,7 +7127,7 @@
         <v>CROWNAGENT</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -7165,7 +7146,7 @@
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>437685769</v>
+        <v>408270818</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
@@ -7173,11 +7154,11 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="3"/>
-        <v>-28460</v>
+        <v>4994</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DEPO</v>
+        <v>LOAN</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="5"/>
@@ -7192,7 +7173,7 @@
         <v>DUNCANLAWR</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
@@ -7211,7 +7192,7 @@
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>404480058</v>
+        <v>471052608</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="2"/>
@@ -7219,7 +7200,7 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="3"/>
-        <v>-96013</v>
+        <v>-82162</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7237,7 +7218,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
@@ -7256,7 +7237,7 @@
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>137244452</v>
+        <v>393551002</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="2"/>
@@ -7264,11 +7245,11 @@
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="3"/>
-        <v>-98448</v>
+        <v>48673</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DEPO</v>
+        <v>LOAN</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="5"/>
@@ -7282,7 +7263,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>91</v>
       </c>
@@ -7301,7 +7282,7 @@
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>387457068</v>
+        <v>215323904</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="2"/>
@@ -7309,7 +7290,7 @@
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="3"/>
-        <v>-7693</v>
+        <v>-38911</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7328,7 +7309,7 @@
         <v>HAMPDENCOP</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -7347,7 +7328,7 @@
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>357617881</v>
+        <v>168116347</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="2"/>
@@ -7355,11 +7336,11 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="3"/>
-        <v>-63789</v>
+        <v>68138</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DEPO</v>
+        <v>LOAN</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="5"/>
@@ -7373,7 +7354,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -7392,7 +7373,7 @@
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>474704548</v>
+        <v>248670455</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="2"/>
@@ -7400,7 +7381,7 @@
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="3"/>
-        <v>-33088</v>
+        <v>-38151</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7418,7 +7399,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -7437,7 +7418,7 @@
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
-        <v>374917813</v>
+        <v>168761499</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="2"/>
@@ -7445,7 +7426,7 @@
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="3"/>
-        <v>115963</v>
+        <v>123142</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7463,7 +7444,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
@@ -7482,7 +7463,7 @@
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
-        <v>236222879</v>
+        <v>419430834</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="2"/>
@@ -7490,7 +7471,7 @@
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="3"/>
-        <v>87020</v>
+        <v>127821</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7508,7 +7489,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -7527,7 +7508,7 @@
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
-        <v>367475221</v>
+        <v>301459366</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="2"/>
@@ -7535,7 +7516,7 @@
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="3"/>
-        <v>91860</v>
+        <v>45345</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7553,7 +7534,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
@@ -7572,7 +7553,7 @@
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="1"/>
-        <v>176731619</v>
+        <v>205188942</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="2"/>
@@ -7580,11 +7561,11 @@
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="3"/>
-        <v>30844</v>
+        <v>-67266</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LOAN</v>
+        <v>DEPO</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="5"/>
@@ -7598,7 +7579,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
@@ -7617,7 +7598,7 @@
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="1"/>
-        <v>382330819</v>
+        <v>427701586</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="2"/>
@@ -7625,11 +7606,11 @@
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="3"/>
-        <v>-32342</v>
+        <v>64726</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DEPO</v>
+        <v>LOAN</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="5"/>
@@ -7644,7 +7625,7 @@
         <v>MARKSSPENC</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
@@ -7663,7 +7644,7 @@
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="1"/>
-        <v>137038505</v>
+        <v>315515337</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="2"/>
@@ -7671,11 +7652,11 @@
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="3"/>
-        <v>116805</v>
+        <v>-75336</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LOAN</v>
+        <v>DEPO</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="5"/>
@@ -7689,7 +7670,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -7708,7 +7689,7 @@
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="1"/>
-        <v>145413436</v>
+        <v>407725301</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="2"/>
@@ -7716,7 +7697,7 @@
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="3"/>
-        <v>-93992</v>
+        <v>-53703</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7734,7 +7715,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
@@ -7753,7 +7734,7 @@
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="1"/>
-        <v>435953365</v>
+        <v>483181212</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="2"/>
@@ -7761,11 +7742,11 @@
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="3"/>
-        <v>95706</v>
+        <v>-24766</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LOAN</v>
+        <v>DEPO</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="5"/>
@@ -7779,7 +7760,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
@@ -7798,7 +7779,7 @@
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="1"/>
-        <v>250100131</v>
+        <v>252009397</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="2"/>
@@ -7806,7 +7787,7 @@
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="3"/>
-        <v>59999</v>
+        <v>132439</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7824,7 +7805,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>92</v>
       </c>
@@ -7843,7 +7824,7 @@
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="1"/>
-        <v>109750998</v>
+        <v>229516343</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="2"/>
@@ -7851,11 +7832,11 @@
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="3"/>
-        <v>27616</v>
+        <v>-57512</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LOAN</v>
+        <v>DEPO</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="5"/>
@@ -7869,7 +7850,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
@@ -7888,7 +7869,7 @@
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="1"/>
-        <v>129398090</v>
+        <v>122222255</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="2"/>
@@ -7896,11 +7877,11 @@
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="3"/>
-        <v>-85777</v>
+        <v>72100</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DEPO</v>
+        <v>LOAN</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="5"/>
@@ -7914,7 +7895,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
@@ -7933,7 +7914,7 @@
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="1"/>
-        <v>158825871</v>
+        <v>399301411</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="2"/>
@@ -7941,7 +7922,7 @@
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="3"/>
-        <v>-54824</v>
+        <v>-8810</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7960,7 +7941,7 @@
         <v>ONESAVINGS</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
@@ -7979,7 +7960,7 @@
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="1"/>
-        <v>298775507</v>
+        <v>308763601</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="2"/>
@@ -7987,7 +7968,7 @@
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="3"/>
-        <v>-69519</v>
+        <v>-92040</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8005,7 +7986,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>55</v>
       </c>
@@ -8024,7 +8005,7 @@
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="1"/>
-        <v>417940392</v>
+        <v>486746619</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="2"/>
@@ -8032,7 +8013,7 @@
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="3"/>
-        <v>97049</v>
+        <v>83924</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8050,7 +8031,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>56</v>
       </c>
@@ -8069,7 +8050,7 @@
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="1"/>
-        <v>428540898</v>
+        <v>272480556</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="2"/>
@@ -8077,7 +8058,7 @@
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="3"/>
-        <v>23290</v>
+        <v>83946</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8095,7 +8076,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>58</v>
       </c>
@@ -8114,7 +8095,7 @@
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="1"/>
-        <v>290189074</v>
+        <v>241144708</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="2"/>
@@ -8122,11 +8103,11 @@
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="3"/>
-        <v>141146</v>
+        <v>-82708</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LOAN</v>
+        <v>DEPO</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="5"/>
@@ -8140,7 +8121,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>59</v>
       </c>
@@ -8159,7 +8140,7 @@
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="1"/>
-        <v>432959510</v>
+        <v>410227596</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="2"/>
@@ -8167,7 +8148,7 @@
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="3"/>
-        <v>2101</v>
+        <v>21356</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8185,7 +8166,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>60</v>
       </c>
@@ -8204,7 +8185,7 @@
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="1"/>
-        <v>338277180</v>
+        <v>417430709</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="2"/>
@@ -8212,11 +8193,11 @@
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="3"/>
-        <v>-30404</v>
+        <v>100652</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DEPO</v>
+        <v>LOAN</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="5"/>
@@ -8231,7 +8212,7 @@
         <v>REVOLUT</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>104</v>
       </c>
@@ -8250,7 +8231,7 @@
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="1"/>
-        <v>305937503</v>
+        <v>164236179</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="2"/>
@@ -8258,11 +8239,11 @@
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="3"/>
-        <v>-66135</v>
+        <v>69679</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DEPO</v>
+        <v>LOAN</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="5"/>
@@ -8276,7 +8257,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>105</v>
       </c>
@@ -8295,7 +8276,7 @@
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="1"/>
-        <v>428280399</v>
+        <v>258384937</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="2"/>
@@ -8303,11 +8284,11 @@
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="3"/>
-        <v>93978</v>
+        <v>-47629</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LOAN</v>
+        <v>DEPO</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="5"/>
@@ -8322,7 +8303,7 @@
         <v>SAINSBURYS</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>61</v>
       </c>
@@ -8341,7 +8322,7 @@
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="1"/>
-        <v>434711221</v>
+        <v>141847417</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="2"/>
@@ -8349,11 +8330,11 @@
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="3"/>
-        <v>-96337</v>
+        <v>9057</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DEPO</v>
+        <v>LOAN</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" si="5"/>
@@ -8367,7 +8348,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>93</v>
       </c>
@@ -8386,7 +8367,7 @@
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="1"/>
-        <v>185681768</v>
+        <v>214293310</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="2"/>
@@ -8394,11 +8375,11 @@
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="3"/>
-        <v>-29970</v>
+        <v>76106</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DEPO</v>
+        <v>LOAN</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="5"/>
@@ -8413,7 +8394,7 @@
         <v>SCOTTISHWI</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>62</v>
       </c>
@@ -8432,7 +8413,7 @@
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="1"/>
-        <v>355538764</v>
+        <v>359984010</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="2"/>
@@ -8440,11 +8421,11 @@
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="3"/>
-        <v>-43287</v>
+        <v>122421</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DEPO</v>
+        <v>LOAN</v>
       </c>
       <c r="J54" t="str">
         <f t="shared" si="5"/>
@@ -8458,7 +8439,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>63</v>
       </c>
@@ -8477,7 +8458,7 @@
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="1"/>
-        <v>352124434</v>
+        <v>470653772</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="2"/>
@@ -8485,11 +8466,11 @@
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="3"/>
-        <v>97075</v>
+        <v>-82089</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LOAN</v>
+        <v>DEPO</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" si="5"/>
@@ -8503,7 +8484,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>64</v>
       </c>
@@ -8522,7 +8503,7 @@
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="1"/>
-        <v>413604382</v>
+        <v>368746178</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="2"/>
@@ -8530,11 +8511,11 @@
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="3"/>
-        <v>50998</v>
+        <v>-10656</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LOAN</v>
+        <v>DEPO</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="5"/>
@@ -8548,7 +8529,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>65</v>
       </c>
@@ -8567,7 +8548,7 @@
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="1"/>
-        <v>407506314</v>
+        <v>303893043</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="2"/>
@@ -8575,7 +8556,7 @@
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="3"/>
-        <v>111756</v>
+        <v>4253</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8593,7 +8574,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>66</v>
       </c>
@@ -8612,7 +8593,7 @@
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="1"/>
-        <v>313546354</v>
+        <v>367972004</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="2"/>
@@ -8620,11 +8601,11 @@
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="3"/>
-        <v>45925</v>
+        <v>-42971</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LOAN</v>
+        <v>DEPO</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="5"/>
@@ -8638,7 +8619,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>68</v>
       </c>
@@ -8657,7 +8638,7 @@
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="1"/>
-        <v>372031295</v>
+        <v>171518395</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="2"/>
@@ -8665,7 +8646,7 @@
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="3"/>
-        <v>85215</v>
+        <v>91448</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8683,7 +8664,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>94</v>
       </c>
@@ -8702,7 +8683,7 @@
       </c>
       <c r="F60">
         <f t="shared" ref="F60:F67" ca="1" si="9">RANDBETWEEN(100000000,500000000)</f>
-        <v>388262246</v>
+        <v>167501791</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" ref="G60:G67" si="10">SUBSTITUTE(UPPER(A60),"&amp;","and")</f>
@@ -8710,7 +8691,7 @@
       </c>
       <c r="H60">
         <f t="shared" ref="H60:H67" ca="1" si="11">RANDBETWEEN(-100000,150000)</f>
-        <v>92904</v>
+        <v>140637</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" ref="I60:I67" ca="1" si="12">IF(H60&lt;0,"DEPO","LOAN")</f>
@@ -8728,7 +8709,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>69</v>
       </c>
@@ -8747,7 +8728,7 @@
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="9"/>
-        <v>440843185</v>
+        <v>498293385</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="10"/>
@@ -8755,7 +8736,7 @@
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="11"/>
-        <v>-44727</v>
+        <v>-26951</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -8774,7 +8755,7 @@
         <v>UNITEDTRUS</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>70</v>
       </c>
@@ -8793,7 +8774,7 @@
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="9"/>
-        <v>441260759</v>
+        <v>133216133</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="10"/>
@@ -8801,11 +8782,11 @@
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="11"/>
-        <v>97637</v>
+        <v>-72209</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>LOAN</v>
+        <v>DEPO</v>
       </c>
       <c r="J62" t="str">
         <f t="shared" si="13"/>
@@ -8820,7 +8801,7 @@
         <v>UNITYTRUST</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>71</v>
       </c>
@@ -8839,7 +8820,7 @@
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="9"/>
-        <v>381356492</v>
+        <v>324108531</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="10"/>
@@ -8847,7 +8828,7 @@
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="11"/>
-        <v>250</v>
+        <v>130110</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -8865,7 +8846,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>73</v>
       </c>
@@ -8884,7 +8865,7 @@
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="9"/>
-        <v>418988342</v>
+        <v>313806736</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="10"/>
@@ -8892,7 +8873,7 @@
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="11"/>
-        <v>118902</v>
+        <v>50229</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -8911,7 +8892,7 @@
         <v>VIRGINMONE</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>75</v>
       </c>
@@ -8930,7 +8911,7 @@
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="9"/>
-        <v>405191314</v>
+        <v>471848555</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="10"/>
@@ -8938,7 +8919,7 @@
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="11"/>
-        <v>-61184</v>
+        <v>-15397</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -8957,7 +8938,7 @@
         <v>WEATHERBYS</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>77</v>
       </c>
@@ -8976,7 +8957,7 @@
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="9"/>
-        <v>255473865</v>
+        <v>109766968</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="10"/>
@@ -8984,7 +8965,7 @@
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="11"/>
-        <v>-74121</v>
+        <v>-61287</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -9002,7 +8983,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>79</v>
       </c>
@@ -9021,7 +9002,7 @@
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="9"/>
-        <v>274913255</v>
+        <v>161561248</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="10"/>
@@ -9029,11 +9010,11 @@
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="11"/>
-        <v>-30178</v>
+        <v>73234</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>DEPO</v>
+        <v>LOAN</v>
       </c>
       <c r="J67" t="str">
         <f t="shared" si="13"/>
@@ -9047,412 +9028,412 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
     </row>
-    <row r="121" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
     </row>
-    <row r="129" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
     </row>
-    <row r="141" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
       <c r="C141" s="2"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
